--- a/tests/data/all-field-types.xlsx
+++ b/tests/data/all-field-types.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="976" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>bool_column</t>
   </si>
@@ -53,36 +53,52 @@
     <t>-</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>éèẽêë</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>~~~~</t>
   </si>
   <si>
     <t>nil</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>álvaro</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
-    <numFmt numFmtId="167" formatCode="YYYY/MM/DD\ HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="MMM\ D&quot;, &quot;YYYY"/>
+    <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD\ HH:MM:SS"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -149,28 +165,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -194,218 +206,216 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1020408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <f aca="false">TRUE()</f>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="0" t="n">
         <v>3.141592</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="0" t="n">
         <v>3.141592</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="3" t="n">
         <v>42234.6319444444</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <f aca="false">FALSE()</f>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="0" t="n">
         <v>1.234</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="0" t="n">
         <v>1.234</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.1169</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="2" t="n">
         <v>36194</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="3" t="n">
         <v>36194.0007175926</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="n">
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="0" t="n">
         <v>4.56</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="0" t="n">
         <v>4.56</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="2" t="n">
         <v>54790</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="3" t="n">
         <v>54790.9899421296</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="I4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="0" t="n">
         <v>7.89</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="0" t="n">
         <v>7.89</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="1" t="n">
         <v>0.1364</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="2" t="n">
         <v>42234</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="3" t="n">
         <v>42234.9316319445</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="H5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="0" t="n">
         <v>9.87</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="0" t="n">
         <v>9.87</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.1314</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="2" t="n">
         <v>42067</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="3" t="n">
         <v>42067.6666782407</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="H6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="0" t="n">
         <v>1.2345</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="0" t="n">
         <v>1.2345</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="2" t="n">
         <v>42130</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="3" t="n">
         <v>42130.5007175926</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2"/>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
